--- a/code/main program/Cluster.xlsx
+++ b/code/main program/Cluster.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theerapat_s\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Project\Thai-Handwriting-Recognition\code\main program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BA37D6-2EE5-4C8A-8312-72D21AD2C867}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDBB10F8-1A76-48F1-8A75-07DA0A587186}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7515" tabRatio="769" xr2:uid="{7BAC1490-905C-41EA-8817-4097B73AC48B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7515" tabRatio="769" activeTab="4" xr2:uid="{7BAC1490-905C-41EA-8817-4097B73AC48B}"/>
   </bookViews>
   <sheets>
     <sheet name="20 Train" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="8">
   <si>
     <t>No. Cluster</t>
   </si>
@@ -121,14 +121,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -147,10 +147,3032 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="th-TH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'20 Train'!$G$3:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0B0-4E1D-9D16-BB0BDC34DCCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'20 Train'!$N$3:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0B0-4E1D-9D16-BB0BDC34DCCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="806637936"/>
+        <c:axId val="622506576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="806637936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622506576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="622506576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="806637936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="th-TH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'30 Train'!$B$3:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2584-4C66-998F-396FC5559262}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'30 Train'!$I$3:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2584-4C66-998F-396FC5559262}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-5"/>
+        <c:axId val="618948816"/>
+        <c:axId val="619449376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="618948816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619449376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="619449376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="618948816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="th-TH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'40 Train'!$G$3:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BB8-4C4C-8DA3-5BDB33CCD5CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'40 Train'!$O$3:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9BB8-4C4C-8DA3-5BDB33CCD5CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1658157808"/>
+        <c:axId val="1525205184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1658157808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1525205184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1525205184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1658157808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>290512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="แผนภูมิ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E38DBD71-B1E3-4F24-8A8F-DA4DE1FD6780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>280987</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="แผนภูมิ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424C569A-F33F-4828-935A-8DB6A949CB09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="แผนภูมิ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D618E7B-7E36-46AE-A594-91BDC4043B6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="กำหนดเอง 1">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,10 +3186,10 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="48A1FA"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="A8D08D"/>
       </a:accent2>
       <a:accent3>
         <a:srgbClr val="A5A5A5"/>
@@ -444,10 +3466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A4227B-9E8F-4B6B-8883-B353FFD8E4A5}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,23 +3479,36 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -489,10 +3524,26 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -515,9 +3566,30 @@
         <f>B3+C3+D3+E3+F3</f>
         <v>13</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:N21" si="0">SUM(I3:M3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -537,12 +3609,33 @@
         <v>107</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G22" si="0">B4+C4+D4+E4+F4</f>
+        <f t="shared" ref="G4:G22" si="1">B4+C4+D4+E4+F4</f>
         <v>302</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3">
+        <v>24</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -562,12 +3655,33 @@
         <v>12</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>202</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3">
+        <v>8</v>
+      </c>
+      <c r="K5" s="3">
+        <v>8</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -587,12 +3701,33 @@
         <v>13</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="3">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -612,12 +3747,33 @@
         <v>5</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>151</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -637,12 +3793,33 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>13</v>
+      </c>
+      <c r="L8" s="3">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -662,12 +3839,33 @@
         <v>14</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>241</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="3">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3">
+        <v>17</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -687,12 +3885,33 @@
         <v>3</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>247</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="3">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>10</v>
+      </c>
+      <c r="M10" s="3">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -712,12 +3931,33 @@
         <v>51</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="3">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3">
+        <v>6</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -737,12 +3977,33 @@
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -762,12 +4023,33 @@
         <v>6</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="3">
+        <v>11</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -787,12 +4069,33 @@
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>196</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="3">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -812,12 +4115,33 @@
         <v>24</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>271</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="3">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3">
+        <v>39</v>
+      </c>
+      <c r="J15" s="3">
+        <v>28</v>
+      </c>
+      <c r="K15" s="3">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -837,12 +4161,33 @@
         <v>8</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="3">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -862,12 +4207,33 @@
         <v>14</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>281</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="3">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -887,12 +4253,33 @@
         <v>4</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="3">
+        <v>16</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -912,12 +4299,33 @@
         <v>40</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="3">
+        <v>17</v>
+      </c>
+      <c r="I19" s="3">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3">
+        <v>9</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2</v>
+      </c>
+      <c r="M19" s="3">
+        <v>8</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -937,12 +4345,33 @@
         <v>12</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>224</v>
       </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="3">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -962,12 +4391,33 @@
         <v>2</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="3">
+        <v>19</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -987,49 +4437,97 @@
         <v>76</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>137</v>
       </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="3">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3">
+        <v>11</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>6</v>
+      </c>
+      <c r="M22" s="3">
+        <v>6</v>
+      </c>
+      <c r="N22" s="3">
+        <f>SUM(I22:M22)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" ref="B23:F23" si="1">SUM(B3:B22)</f>
+        <f t="shared" ref="B23:G23" si="2">SUM(B3:B22)</f>
         <v>1022</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>673</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>522</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>366</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>402</v>
       </c>
       <c r="G23" s="2">
-        <f>SUM(G3:G22)</f>
+        <f t="shared" si="2"/>
         <v>2985</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" ref="I23:N23" si="3">SUM(I3:I22)</f>
+        <v>132</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="3"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1051,12 +4549,27 @@
     <row r="51" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:M1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:F3 H3">
+  <conditionalFormatting sqref="C3:F3">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1068,7 +4581,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
+  <conditionalFormatting sqref="C4:F22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F22">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:M3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:M3">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1080,7 +4629,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F22 H4:H22">
+  <conditionalFormatting sqref="J4:M22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1092,7 +4641,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F22">
+  <conditionalFormatting sqref="I4:M22">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1108,6 +4657,7 @@
   <ignoredErrors>
     <ignoredError sqref="B23:F23" formulaRange="1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1116,7 +4666,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="B2:F2"/>
+      <selection activeCell="G23" sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,22 +4677,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +4708,7 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1645,11 +5195,11 @@
         <v>2</v>
       </c>
       <c r="B23" s="2">
-        <f>SUM(B3:B22)</f>
+        <f t="shared" ref="B23:G23" si="1">SUM(B3:B22)</f>
         <v>132</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ref="C23:G23" si="1">SUM(C3:C22)</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="D23" s="2">
@@ -1758,10 +5308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F501A38-A30A-4FBC-A21D-C7201224F81D}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I3" activeCellId="1" sqref="B3:B32 I3:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,23 +5321,36 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1803,9 +5366,26 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1828,8 +5408,30 @@
         <f>SUM(B3:F3)</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:N31" si="0">SUM(I3:M3)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1849,11 +5451,33 @@
         <v>89</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G32" si="0">SUM(B4:F4)</f>
+        <f t="shared" ref="G4:G32" si="1">SUM(B4:F4)</f>
         <v>204</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3">
+        <v>7</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1873,11 +5497,33 @@
         <v>13</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>222</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1897,11 +5543,33 @@
         <v>46</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="3">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>12</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1921,11 +5589,33 @@
         <v>8</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1945,11 +5635,33 @@
         <v>9</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1969,11 +5681,33 @@
         <v>2</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="3">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1993,11 +5727,33 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="3">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2017,11 +5773,33 @@
         <v>3</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="3">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2041,11 +5819,33 @@
         <v>3</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2065,11 +5865,33 @@
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="3">
+        <v>11</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2089,11 +5911,33 @@
         <v>7</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="3">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2113,11 +5957,33 @@
         <v>4</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="3">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>7</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2137,11 +6003,33 @@
         <v>95</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>249</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="3">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3">
+        <v>15</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2</v>
+      </c>
+      <c r="M16" s="3">
+        <v>22</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2161,11 +6049,33 @@
         <v>17</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="3">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2185,11 +6095,33 @@
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="3">
+        <v>16</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2209,11 +6141,33 @@
         <v>35</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="3">
+        <v>17</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>4</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2233,11 +6187,33 @@
         <v>1</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="3">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2257,11 +6233,33 @@
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="3">
+        <v>19</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2281,11 +6279,33 @@
         <v>3</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>232</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="3">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2305,11 +6325,33 @@
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="3">
+        <v>21</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2329,11 +6371,33 @@
         <v>1</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="3">
+        <v>22</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2353,11 +6417,33 @@
         <v>10</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="3">
+        <v>23</v>
+      </c>
+      <c r="I25" s="3">
+        <v>4</v>
+      </c>
+      <c r="J25" s="3">
+        <v>6</v>
+      </c>
+      <c r="K25" s="3">
+        <v>2</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2377,11 +6463,33 @@
         <v>4</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="3">
+        <v>24</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2401,11 +6509,33 @@
         <v>10</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="3">
+        <v>25</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>2</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2425,11 +6555,33 @@
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="3">
+        <v>26</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>6</v>
+      </c>
+      <c r="L28" s="3">
+        <v>3</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2449,11 +6601,33 @@
         <v>2</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="3">
+        <v>27</v>
+      </c>
+      <c r="I29" s="3">
+        <v>9</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>7</v>
+      </c>
+      <c r="L29" s="3">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2473,11 +6647,33 @@
         <v>4</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="3">
+        <v>28</v>
+      </c>
+      <c r="I30" s="3">
+        <v>9</v>
+      </c>
+      <c r="J30" s="3">
+        <v>5</v>
+      </c>
+      <c r="K30" s="3">
+        <v>2</v>
+      </c>
+      <c r="L30" s="3">
+        <v>2</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2497,11 +6693,33 @@
         <v>14</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>189</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="3">
+        <v>29</v>
+      </c>
+      <c r="I31" s="3">
+        <v>16</v>
+      </c>
+      <c r="J31" s="3">
+        <v>11</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2521,65 +6739,141 @@
         <v>11</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>162</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="3">
+        <v>30</v>
+      </c>
+      <c r="I32" s="3">
+        <v>35</v>
+      </c>
+      <c r="J32" s="3">
+        <v>20</v>
+      </c>
+      <c r="K32" s="3">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <f>SUM(I32:M32)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="2">
-        <f>SUM(B3:B32)</f>
+        <f t="shared" ref="B33:G33" si="2">SUM(B3:B32)</f>
         <v>1123</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" ref="C33:G33" si="1">SUM(C3:C32)</f>
+        <f t="shared" si="2"/>
         <v>677</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>523</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>367</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>402</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3092</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" ref="I33:N33" si="3">SUM(I3:I32)</f>
+        <v>132</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="3"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:F3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F32">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:M3">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2591,7 +6885,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F32">
+  <conditionalFormatting sqref="I4:M32">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2604,6 +6898,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2611,8 +6906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0C0F8B-1014-4E4A-9360-EA0D55091BDC}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G33" sqref="A1:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2623,22 +6918,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2654,7 +6949,7 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -3381,11 +7676,11 @@
         <v>2</v>
       </c>
       <c r="B33" s="2">
-        <f>SUM(B3:B32)</f>
+        <f t="shared" ref="B33:G33" si="1">SUM(B3:B32)</f>
         <v>132</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" ref="C33:G33" si="1">SUM(C3:C32)</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="D33" s="2">
@@ -3460,10 +7755,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D458E3-6386-43B8-A134-3FE73C7AE9E9}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" activeCellId="1" sqref="O3:O42 G3:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3473,23 +7768,36 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3505,9 +7813,26 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3530,8 +7855,34 @@
         <f>SUM(B3:F3)</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H41" si="0">SUM(C3:G3)</f>
+        <v>172</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>24</v>
+      </c>
+      <c r="K3" s="3">
+        <v>11</v>
+      </c>
+      <c r="L3" s="3">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O41" si="1">SUM(J3:N3)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3551,11 +7902,37 @@
         <v>7</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G42" si="0">SUM(B4:F4)</f>
+        <f t="shared" ref="G4:G42" si="2">SUM(B4:F4)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3575,11 +7952,37 @@
         <v>7</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3599,11 +8002,37 @@
         <v>5</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
+        <v>6</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3623,11 +8052,37 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3647,11 +8102,37 @@
         <v>30</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11</v>
+      </c>
+      <c r="K8" s="3">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>6</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3671,11 +8152,37 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3695,11 +8202,37 @@
         <v>22</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3719,11 +8252,37 @@
         <v>17</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="I11" s="3">
+        <v>9</v>
+      </c>
+      <c r="J11" s="3">
+        <v>18</v>
+      </c>
+      <c r="K11" s="3">
+        <v>6</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3743,11 +8302,37 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="I12" s="3">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3">
+        <v>6</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -3767,11 +8352,37 @@
         <v>8</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="I13" s="3">
+        <v>11</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -3791,11 +8402,37 @@
         <v>7</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="I14" s="3">
+        <v>12</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -3815,11 +8452,37 @@
         <v>4</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="I15" s="3">
+        <v>13</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -3839,11 +8502,37 @@
         <v>7</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="I16" s="3">
+        <v>14</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>4</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -3863,11 +8552,37 @@
         <v>3</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="I17" s="3">
+        <v>15</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -3887,11 +8602,37 @@
         <v>1</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="I18" s="3">
+        <v>16</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
+        <v>6</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -3911,11 +8652,37 @@
         <v>4</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="I19" s="3">
+        <v>17</v>
+      </c>
+      <c r="J19" s="3">
+        <v>16</v>
+      </c>
+      <c r="K19" s="3">
+        <v>15</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -3935,11 +8702,37 @@
         <v>2</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="I20" s="3">
+        <v>18</v>
+      </c>
+      <c r="J20" s="3">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -3959,11 +8752,37 @@
         <v>4</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>271</v>
+      </c>
+      <c r="I21" s="3">
+        <v>19</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -3983,11 +8802,37 @@
         <v>4</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="I22" s="3">
+        <v>20</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -4007,11 +8852,37 @@
         <v>6</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I23" s="3">
+        <v>21</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -4031,11 +8902,37 @@
         <v>3</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="I24" s="3">
+        <v>22</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -4055,11 +8952,37 @@
         <v>3</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="I25" s="3">
+        <v>23</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -4079,11 +9002,37 @@
         <v>2</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="I26" s="3">
+        <v>24</v>
+      </c>
+      <c r="J26" s="3">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
+        <v>6</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2</v>
+      </c>
+      <c r="M26" s="3">
+        <v>2</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -4103,11 +9052,37 @@
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="I27" s="3">
+        <v>25</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>2</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -4127,11 +9102,37 @@
         <v>1</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I28" s="3">
+        <v>26</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -4151,11 +9152,37 @@
         <v>5</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I29" s="3">
+        <v>27</v>
+      </c>
+      <c r="J29" s="3">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -4175,11 +9202,37 @@
         <v>42</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="3">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="I30" s="3">
+        <v>28</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>2</v>
+      </c>
+      <c r="L30" s="3">
+        <v>3</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <v>4</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -4199,11 +9252,37 @@
         <v>8</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="3">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="I31" s="3">
+        <v>29</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -4223,11 +9302,37 @@
         <v>110</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="3">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="I32" s="3">
+        <v>30</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
+        <v>24</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -4247,11 +9352,37 @@
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="3">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="I33" s="3">
+        <v>31</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2</v>
+      </c>
+      <c r="M33" s="3">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -4271,11 +9402,37 @@
         <v>2</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="I34" s="3">
+        <v>32</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -4295,11 +9452,37 @@
         <v>42</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="3">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="I35" s="3">
+        <v>33</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>12</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -4319,11 +9502,37 @@
         <v>3</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="3">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="I36" s="3">
+        <v>34</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>3</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>2</v>
+      </c>
+      <c r="N36" s="3">
+        <v>3</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -4343,11 +9552,37 @@
         <v>2</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I37" s="3">
+        <v>35</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1</v>
+      </c>
+      <c r="N37" s="3">
+        <v>7</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -4367,11 +9602,37 @@
         <v>6</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="3">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="I38" s="3">
+        <v>36</v>
+      </c>
+      <c r="J38" s="3">
+        <v>5</v>
+      </c>
+      <c r="K38" s="3">
+        <v>5</v>
+      </c>
+      <c r="L38" s="3">
+        <v>2</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -4391,11 +9652,37 @@
         <v>29</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="3">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="I39" s="3">
+        <v>37</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -4415,11 +9702,37 @@
         <v>0</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="3">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="I40" s="3">
+        <v>38</v>
+      </c>
+      <c r="J40" s="3">
+        <v>2</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -4439,11 +9752,37 @@
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="3">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="I41" s="3">
+        <v>39</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -4463,55 +9802,135 @@
         <v>3</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="3">
+        <f>SUM(C42:G42)</f>
+        <v>82</v>
+      </c>
+      <c r="I42" s="3">
+        <v>40</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2</v>
+      </c>
+      <c r="K42" s="3">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>1</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <f>SUM(J42:N42)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="2">
-        <f>SUM(B3:B42)</f>
+        <f t="shared" ref="B43:G43" si="3">SUM(B3:B42)</f>
         <v>1123</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" ref="C43:G43" si="1">SUM(C3:C42)</f>
+        <f t="shared" si="3"/>
         <v>677</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>523</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>366</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>402</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3091</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" ref="J43:O43" si="4">SUM(J3:J42)</f>
+        <v>132</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="L43" s="3">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="M43" s="3">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="N43" s="3">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="O43" s="3">
+        <f t="shared" si="4"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:F3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F42">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:N3">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4523,7 +9942,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F42">
+  <conditionalFormatting sqref="J4:N42">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4536,15 +9955,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7D9978-CA36-48DE-95EB-092A03B35055}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="G43" sqref="A1:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4554,23 +9974,23 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -4586,9 +10006,9 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4611,8 +10031,11 @@
         <f t="shared" ref="G3:G41" si="0">SUM(B3:F3)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4635,8 +10058,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4659,8 +10085,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4683,8 +10112,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4707,8 +10139,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4731,8 +10166,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4755,8 +10193,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4779,8 +10220,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4803,8 +10247,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4827,8 +10274,11 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4851,8 +10301,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4875,8 +10328,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -4899,8 +10355,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -4923,8 +10382,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -4947,8 +10409,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -4971,8 +10436,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -4995,8 +10463,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -5019,8 +10490,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -5043,8 +10517,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -5067,8 +10544,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -5091,8 +10571,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -5115,8 +10598,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -5139,8 +10625,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -5163,8 +10652,11 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -5187,8 +10679,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -5211,8 +10706,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -5235,8 +10733,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -5259,8 +10760,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -5283,8 +10787,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -5307,8 +10814,11 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -5331,8 +10841,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -5355,8 +10868,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -5379,8 +10895,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -5403,8 +10922,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -5427,8 +10949,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -5451,8 +10976,11 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -5475,8 +11003,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -5499,8 +11030,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -5523,8 +11057,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -5547,17 +11084,20 @@
         <f>SUM(B42:F42)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="2">
-        <f>SUM(B3:B42)</f>
+        <f t="shared" ref="B43:G43" si="1">SUM(B3:B42)</f>
         <v>132</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" ref="C43:G43" si="1">SUM(C3:C42)</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="D43" s="2">
@@ -5577,11 +11117,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5624,7 +11164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2128BB1C-0DBA-4054-8679-3C2178E81A87}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
@@ -5636,22 +11176,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -5667,7 +11207,7 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -6874,23 +12414,23 @@
         <v>2</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" ref="B53:F53" si="1">SUM(B33:B52)</f>
+        <f>SUM(B33:B52)</f>
         <v>365</v>
       </c>
       <c r="C53" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(C33:C52)</f>
         <v>263</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(D33:D52)</f>
         <v>196</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(E33:E52)</f>
         <v>141</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(F33:F52)</f>
         <v>194</v>
       </c>
       <c r="G53" s="2">
@@ -6948,22 +12488,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -6979,7 +12519,7 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -8186,27 +13726,27 @@
         <v>2</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" ref="B53:F53" si="1">SUM(B33:B52)</f>
+        <f>SUM(B33:B52)</f>
         <v>34</v>
       </c>
       <c r="C53" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(C33:C52)</f>
         <v>32</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(D33:D52)</f>
         <v>20</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(E33:E52)</f>
         <v>20</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(F33:F52)</f>
         <v>33</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" ref="G53" si="2">SUM(B53:F53)</f>
+        <f>SUM(B53:F53)</f>
         <v>139</v>
       </c>
     </row>
